--- a/otros/GraphsLab5.xlsx
+++ b/otros/GraphsLab5.xlsx
@@ -11935,7 +11935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>

--- a/otros/GraphsLab5.xlsx
+++ b/otros/GraphsLab5.xlsx
@@ -14,9 +14,10 @@
   <sheets>
     <sheet name="CPU1RAM100INTERVAL10,5,1" sheetId="1" r:id="rId1"/>
     <sheet name="CPU1RAM200INTERVAL10,5,1" sheetId="4" r:id="rId2"/>
-    <sheet name="CPU1RAM200INS6" sheetId="5" r:id="rId3"/>
-    <sheet name="CPU1RAM100INS6" sheetId="6" r:id="rId4"/>
-    <sheet name="CPU2RAM100INS3" sheetId="7" r:id="rId5"/>
+    <sheet name="CPU1RAM100INS6" sheetId="6" r:id="rId3"/>
+    <sheet name="CPU2RAM100INS3" sheetId="7" r:id="rId4"/>
+    <sheet name="Conclusion" sheetId="8" r:id="rId5"/>
+    <sheet name="CPU1RAM200INS6" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="12">
   <si>
     <t>Tiempo Promedio</t>
   </si>
@@ -55,6 +56,15 @@
   </si>
   <si>
     <t>Intervalo 1</t>
+  </si>
+  <si>
+    <t>Como se pudo observar en las gráficas, se puede ver que la técnica más rápida aunqeu todas sean de nlogn es cuando se tiene un procesador más rápido, incluso que tener un doble procesador.</t>
+  </si>
+  <si>
+    <t>Además, como se puede observar la velocidad de procesamiento es el siguiente en orden ascendente:</t>
+  </si>
+  <si>
+    <t>RAM, CPU, Velocidad de ejecucion de procesos</t>
   </si>
 </sst>
 </file>
@@ -700,7 +710,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>CPU1RAM100INS6!$A$3:$A$11</c:f>
+              <c:f>CPU2RAM100INS3!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -708,35 +718,35 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>197</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>465</c:v>
+                  <c:v>897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1011</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2136</c:v>
+                  <c:v>4369</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4404</c:v>
+                  <c:v>9026</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8990</c:v>
+                  <c:v>18495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CPU1RAM100INS6!$B$3:$B$11</c:f>
+              <c:f>CPU2RAM100INS3!$B$3:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -773,7 +783,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FAF5-4DD4-8B7E-D4AD3EB4E7F8}"/>
+              <c16:uniqueId val="{00000000-5C9E-4877-9C7F-A8F41E153634}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1108,7 +1118,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>CPU1RAM100INS6!$F$3:$F$11</c:f>
+              <c:f>CPU2RAM100INS3!$F$3:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1116,35 +1126,35 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>198</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>463</c:v>
+                  <c:v>1026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1030</c:v>
+                  <c:v>2296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2162</c:v>
+                  <c:v>4860</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4440</c:v>
+                  <c:v>10128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9011</c:v>
+                  <c:v>20581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CPU1RAM100INS6!$G$3:$G$11</c:f>
+              <c:f>CPU2RAM100INS3!$G$3:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1181,7 +1191,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D83-4E52-9FA0-BBB47E236D06}"/>
+              <c16:uniqueId val="{00000000-643E-4A31-84E3-82F6939C856B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1516,7 +1526,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>CPU1RAM100INS6!$K$3:$K$11</c:f>
+              <c:f>CPU2RAM100INS3!$L$3:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1527,32 +1537,32 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>206</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>475</c:v>
+                  <c:v>915</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1034</c:v>
+                  <c:v>2081</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2175</c:v>
+                  <c:v>4483</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4473</c:v>
+                  <c:v>9279</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9085</c:v>
+                  <c:v>18958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CPU1RAM100INS6!$L$3:$L$11</c:f>
+              <c:f>CPU2RAM100INS3!$M$3:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1589,7 +1599,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9318-447B-AE03-3055B4BC4288}"/>
+              <c16:uniqueId val="{00000000-8116-41C6-9280-721587356A8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1874,25 +1884,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-GT" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="es-GT"/>
               <a:t>Cantidad de procesos vs Tiempo Promedio (units of time)</a:t>
             </a:r>
-            <a:endParaRPr lang="es-GT">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16496522309711287"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1901,6 +1899,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1912,15 +1930,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'CPU1RAM200INTERVAL10,5,1'!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cantidad de procesos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>CPU1RAM100INS3INTERVAL10</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1931,6 +1941,348 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CPU1RAM100INTERVAL10,5,1'!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1314</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2851</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5982</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CPU1RAM100INTERVAL10,5,1'!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92EF-423D-8C86-E33FD8A89B81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CPU1RAM200INS3INTERVAL10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CPU1RAM200INTERVAL10,5,1'!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4578</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9443</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CPU1RAM200INTERVAL10,5,1'!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-92EF-423D-8C86-E33FD8A89B81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>CPU1RAM100INS6INTERVAL10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CPU1RAM100INS6!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CPU1RAM100INS6!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-92EF-423D-8C86-E33FD8A89B81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>CPU2RAM100INS3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>CPU2RAM100INS3!$A$3:$A$11</c:f>
@@ -2006,7 +2358,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C9E-4877-9C7F-A8F41E153634}"/>
+              <c16:uniqueId val="{0000000A-92EF-423D-8C86-E33FD8A89B81}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2018,11 +2370,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1212225760"/>
-        <c:axId val="1212226176"/>
+        <c:axId val="950019040"/>
+        <c:axId val="950019872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1212225760"/>
+        <c:axId val="950019040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,14 +2414,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-GT" sz="1800" b="0" i="0" baseline="0">
+                  <a:rPr lang="es-GT" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Promedio (units of time)</a:t>
+                  <a:t>Tiempo Promedio (units of time)</a:t>
                 </a:r>
-                <a:endParaRPr lang="es-GT">
-                  <a:effectLst/>
-                </a:endParaRPr>
+                <a:endParaRPr lang="es-GT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2082,6 +2432,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2120,12 +2490,12 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1212226176"/>
+        <c:crossAx val="950019872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1212226176"/>
+        <c:axId val="950019872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,25 +2535,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-GT" sz="1800" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Cantidad de procesos </a:t>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Cantidad de Procesos</a:t>
                 </a:r>
-                <a:endParaRPr lang="es-GT">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="3.0555555555555555E-2"/>
-              <c:y val="7.3842592592592599E-2"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2192,6 +2550,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2230,15 +2608,69 @@
             <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1212225760"/>
+        <c:crossAx val="950019040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -2339,9 +2771,18 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>CPU2RAM100INS3!$F$3:$F$11</c:f>
+              <c:f>CPU1RAM200INS6!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2349,35 +2790,35 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1026</c:v>
+                  <c:v>517</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2296</c:v>
+                  <c:v>1127</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4860</c:v>
+                  <c:v>2372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10128</c:v>
+                  <c:v>4870</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20581</c:v>
+                  <c:v>9880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CPU2RAM100INS3!$G$3:$G$11</c:f>
+              <c:f>CPU1RAM200INS6!$B$3:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2414,7 +2855,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-643E-4A31-84E3-82F6939C856B}"/>
+              <c16:uniqueId val="{00000006-102E-474C-B7B5-654913A7AA3B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2747,9 +3188,18 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>CPU2RAM100INS3!$L$3:$L$11</c:f>
+              <c:f>CPU1RAM200INS6!$F$3:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2757,35 +3207,35 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>365</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>915</c:v>
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2081</c:v>
+                  <c:v>1126</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4483</c:v>
+                  <c:v>2360</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9279</c:v>
+                  <c:v>4839</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18958</c:v>
+                  <c:v>9817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CPU2RAM100INS3!$M$3:$M$11</c:f>
+              <c:f>CPU1RAM200INS6!$G$3:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2822,7 +3272,517 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8116-41C6-9280-721587356A8F}"/>
+              <c16:uniqueId val="{00000003-6BA7-4981-9797-5CD192596057}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CPU1RAM200INTERVAL10,5,1'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad de procesos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CPU1RAM200INS6!$F$3:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1126</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2360</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4839</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9817</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CPU1RAM200INS6!$G$3:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6BA7-4981-9797-5CD192596057}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1212225760"/>
+        <c:axId val="1212226176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1212225760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Promedio (units of time)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-GT">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1212226176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1212226176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Cantidad de procesos </a:t>
+                </a:r>
+                <a:endParaRPr lang="es-GT">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="7.3842592592592599E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1212225760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Cantidad de procesos vs Tiempo Promedio (units of time)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-GT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16496522309711287"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CPU1RAM200INTERVAL10,5,1'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad de procesos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CPU1RAM200INS6!$K$3:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1034</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4490</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CPU1RAM200INS6!$L$3:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9451-4738-8162-82D1CCC7D6F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5820,7 +6780,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>CPU1RAM200INS6!$A$3:$A$11</c:f>
+              <c:f>CPU1RAM100INS6!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5828,35 +6788,35 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>224</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>517</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1127</c:v>
+                  <c:v>1011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2372</c:v>
+                  <c:v>2136</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4870</c:v>
+                  <c:v>4404</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9880</c:v>
+                  <c:v>8990</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CPU1RAM200INS6!$B$3:$B$11</c:f>
+              <c:f>CPU1RAM100INS6!$B$3:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5893,7 +6853,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-102E-474C-B7B5-654913A7AA3B}"/>
+              <c16:uniqueId val="{00000000-FAF5-4DD4-8B7E-D4AD3EB4E7F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6226,18 +7186,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>CPU1RAM200INS6!$F$3:$F$11</c:f>
+              <c:f>CPU1RAM100INS6!$F$3:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -6245,35 +7196,35 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>225</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>521</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1126</c:v>
+                  <c:v>1030</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2360</c:v>
+                  <c:v>2162</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4839</c:v>
+                  <c:v>4440</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9817</c:v>
+                  <c:v>9011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CPU1RAM200INS6!$G$3:$G$11</c:f>
+              <c:f>CPU1RAM100INS6!$G$3:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -6310,109 +7261,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6BA7-4981-9797-5CD192596057}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'CPU1RAM200INTERVAL10,5,1'!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cantidad de procesos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>CPU1RAM200INS6!$F$3:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>521</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1126</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2360</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4839</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9817</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>CPU1RAM200INS6!$G$3:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6BA7-4981-9797-5CD192596057}"/>
+              <c16:uniqueId val="{00000000-0D83-4E52-9FA0-BBB47E236D06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6732,7 +7581,7 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -6747,7 +7596,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>CPU1RAM200INS6!$K$3:$K$11</c:f>
+              <c:f>CPU1RAM100INS6!$K$3:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -6755,35 +7604,35 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>202</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>474</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1034</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2179</c:v>
+                  <c:v>2175</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4490</c:v>
+                  <c:v>4473</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9118</c:v>
+                  <c:v>9085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CPU1RAM200INS6!$L$3:$L$11</c:f>
+              <c:f>CPU1RAM100INS6!$L$3:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -6820,7 +7669,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9451-4738-8162-82D1CCC7D6F6}"/>
+              <c16:uniqueId val="{00000000-9318-447B-AE03-3055B4BC4288}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7231,6 +8080,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8780,6 +9669,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9720,221 +11125,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161296</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>189952</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5143500"/>
-          <a:ext cx="5028571" cy="4380952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>456575</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>37565</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12049125" y="5095875"/>
-          <a:ext cx="5000000" cy="4276190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>180344</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>85190</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6010275" y="5143500"/>
-          <a:ext cx="5047619" cy="4276190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -10145,7 +11335,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10349,6 +11539,258 @@
         <a:xfrm>
           <a:off x="11630025" y="5334000"/>
           <a:ext cx="5047619" cy="4285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161296</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>189952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5143500"/>
+          <a:ext cx="5028571" cy="4380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>456575</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>37565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12049125" y="5095875"/>
+          <a:ext cx="5000000" cy="4276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180344</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6010275" y="5143500"/>
+          <a:ext cx="5047619" cy="4276190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10954,7 +12396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:G11"/>
     </sheetView>
   </sheetViews>
@@ -11282,332 +12724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>24</v>
-      </c>
-      <c r="G4">
-        <v>25</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-      <c r="K4">
-        <v>18</v>
-      </c>
-      <c r="L4">
-        <v>25</v>
-      </c>
-      <c r="M4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>75</v>
-      </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
-      <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>86</v>
-      </c>
-      <c r="G5">
-        <v>50</v>
-      </c>
-      <c r="H5">
-        <v>21</v>
-      </c>
-      <c r="K5">
-        <v>74</v>
-      </c>
-      <c r="L5">
-        <v>50</v>
-      </c>
-      <c r="M5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>224</v>
-      </c>
-      <c r="B6" s="2">
-        <v>75</v>
-      </c>
-      <c r="C6">
-        <v>35</v>
-      </c>
-      <c r="F6">
-        <v>225</v>
-      </c>
-      <c r="G6" s="2">
-        <v>75</v>
-      </c>
-      <c r="H6">
-        <v>28</v>
-      </c>
-      <c r="K6">
-        <v>202</v>
-      </c>
-      <c r="L6" s="2">
-        <v>75</v>
-      </c>
-      <c r="M6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>517</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>521</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>41</v>
-      </c>
-      <c r="K7">
-        <v>474</v>
-      </c>
-      <c r="L7">
-        <v>100</v>
-      </c>
-      <c r="M7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1127</v>
-      </c>
-      <c r="B8">
-        <v>125</v>
-      </c>
-      <c r="C8">
-        <v>50</v>
-      </c>
-      <c r="F8">
-        <v>1126</v>
-      </c>
-      <c r="G8">
-        <v>125</v>
-      </c>
-      <c r="H8">
-        <v>51</v>
-      </c>
-      <c r="K8">
-        <v>1034</v>
-      </c>
-      <c r="L8">
-        <v>125</v>
-      </c>
-      <c r="M8">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2372</v>
-      </c>
-      <c r="B9" s="2">
-        <v>150</v>
-      </c>
-      <c r="C9">
-        <v>62</v>
-      </c>
-      <c r="F9">
-        <v>2360</v>
-      </c>
-      <c r="G9" s="2">
-        <v>150</v>
-      </c>
-      <c r="H9">
-        <v>62</v>
-      </c>
-      <c r="K9">
-        <v>2179</v>
-      </c>
-      <c r="L9" s="2">
-        <v>150</v>
-      </c>
-      <c r="M9">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4870</v>
-      </c>
-      <c r="B10">
-        <v>175</v>
-      </c>
-      <c r="C10">
-        <v>73</v>
-      </c>
-      <c r="F10">
-        <v>4839</v>
-      </c>
-      <c r="G10">
-        <v>175</v>
-      </c>
-      <c r="H10">
-        <v>70</v>
-      </c>
-      <c r="K10">
-        <v>4490</v>
-      </c>
-      <c r="L10">
-        <v>175</v>
-      </c>
-      <c r="M10">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9880</v>
-      </c>
-      <c r="B11">
-        <v>200</v>
-      </c>
-      <c r="C11">
-        <v>81</v>
-      </c>
-      <c r="F11">
-        <v>9817</v>
-      </c>
-      <c r="G11">
-        <v>200</v>
-      </c>
-      <c r="H11">
-        <v>84</v>
-      </c>
-      <c r="K11">
-        <v>9118</v>
-      </c>
-      <c r="L11">
-        <v>200</v>
-      </c>
-      <c r="M11">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
-  <sheetViews>
-    <sheetView topLeftCell="E3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:M11"/>
     </sheetView>
   </sheetViews>
@@ -11931,11 +13048,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -12258,4 +13375,363 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="174.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>25</v>
+      </c>
+      <c r="M4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>86</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>74</v>
+      </c>
+      <c r="L5">
+        <v>50</v>
+      </c>
+      <c r="M5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>224</v>
+      </c>
+      <c r="B6" s="2">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>225</v>
+      </c>
+      <c r="G6" s="2">
+        <v>75</v>
+      </c>
+      <c r="H6">
+        <v>28</v>
+      </c>
+      <c r="K6">
+        <v>202</v>
+      </c>
+      <c r="L6" s="2">
+        <v>75</v>
+      </c>
+      <c r="M6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>517</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>521</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>41</v>
+      </c>
+      <c r="K7">
+        <v>474</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1127</v>
+      </c>
+      <c r="B8">
+        <v>125</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>1126</v>
+      </c>
+      <c r="G8">
+        <v>125</v>
+      </c>
+      <c r="H8">
+        <v>51</v>
+      </c>
+      <c r="K8">
+        <v>1034</v>
+      </c>
+      <c r="L8">
+        <v>125</v>
+      </c>
+      <c r="M8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2372</v>
+      </c>
+      <c r="B9" s="2">
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <v>62</v>
+      </c>
+      <c r="F9">
+        <v>2360</v>
+      </c>
+      <c r="G9" s="2">
+        <v>150</v>
+      </c>
+      <c r="H9">
+        <v>62</v>
+      </c>
+      <c r="K9">
+        <v>2179</v>
+      </c>
+      <c r="L9" s="2">
+        <v>150</v>
+      </c>
+      <c r="M9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4870</v>
+      </c>
+      <c r="B10">
+        <v>175</v>
+      </c>
+      <c r="C10">
+        <v>73</v>
+      </c>
+      <c r="F10">
+        <v>4839</v>
+      </c>
+      <c r="G10">
+        <v>175</v>
+      </c>
+      <c r="H10">
+        <v>70</v>
+      </c>
+      <c r="K10">
+        <v>4490</v>
+      </c>
+      <c r="L10">
+        <v>175</v>
+      </c>
+      <c r="M10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9880</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+      <c r="C11">
+        <v>81</v>
+      </c>
+      <c r="F11">
+        <v>9817</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+      <c r="H11">
+        <v>84</v>
+      </c>
+      <c r="K11">
+        <v>9118</v>
+      </c>
+      <c r="L11">
+        <v>200</v>
+      </c>
+      <c r="M11">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>